--- a/documents/schedule_classes.xlsx
+++ b/documents/schedule_classes.xlsx
@@ -743,7 +743,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -2360,7 +2360,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -3700,7 +3700,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -4587,7 +4587,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -6163,7 +6163,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -7345,7 +7345,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -8170,7 +8170,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -8995,7 +8995,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -10583,7 +10583,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -12539,7 +12539,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -13635,7 +13635,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -14793,7 +14793,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -15729,7 +15729,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -16464,7 +16464,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -17209,7 +17209,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -17903,7 +17903,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -19740,7 +19740,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -21575,7 +21575,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -23057,7 +23057,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -24475,7 +24475,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -25435,7 +25435,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -27229,7 +27229,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
